--- a/接口分析.xlsx
+++ b/接口分析.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\douxi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\常用文件\EWorkers\接口分析\EWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A6746B1-F413-423D-BD37-4290BB9248F0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" xr2:uid="{C9806634-2E98-445E-A475-69ECF4CED673}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="接口" sheetId="1" r:id="rId1"/>
     <sheet name="数据库修改" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="167">
   <si>
     <t>模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -192,10 +191,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>系统分配的唯一ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>微信ID</t>
   </si>
   <si>
@@ -264,13 +259,444 @@
   </si>
   <si>
     <t>判断是否注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证识别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IdRecognition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询菜单状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetItemState</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询内部推荐人信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存内部推荐人信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需提供推荐人工号数据源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>求职表页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部推荐页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetReferrerInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SaveReferrer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetReferrerList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Applicant</t>
+  </si>
+  <si>
+    <t>查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高学历页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SaveEducation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存教育经历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Education</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Education</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增或者更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信ID，学历，学校名称，入学日期，毕业日期，学习形式，专业，学位，操作类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信ID,推荐人姓名,推荐人工号，操作类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作经历页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetEducationHistoryList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询推荐人下拉框数据源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询教育经历列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetDegreeList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询学历和学位数据源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetCountryList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询国家数据源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetWorkHistory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询工作经历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SaveWorkHistory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存工作经历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorkHistory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorkHistory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信ID，入职时间，离职时间，公司名称，最后职位，国家，公司地址，离职薪资，离职原因，操作类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得招聘信息渠道页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetChannelList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取招聘渠道数据源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetChannel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取招聘渠道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存招聘渠道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SaveChannel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataDictionary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Applicant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Applicant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Applicant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信ID，招聘渠道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入职资料页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存入职资料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SaveStaffInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetStaffInfoAndDataSource</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询入职资料和下拉框数据源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetContactsList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询紧急联系人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SaveContactsList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存紧急联系人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紧急联系人页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紧急联系人页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信ID，操作类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增或更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家庭成员页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetFamilyMembers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询家庭成员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SaveFamilyMembers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存家庭成员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应聘岗位页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetPostListAndState</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询岗位项和应聘岗位状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应聘岗位页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetPostInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询岗位详细信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岗位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetSavePost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应聘岗位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetApplicantState</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询应聘者状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CancelApply</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消应聘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面试官</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetInterviewList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询面试名单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetAssessmentDepartment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考核部门数据源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetAssessmentPost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考核岗位数据源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetInterviewResult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询考核结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SaveInterviewResult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存考核结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetMemberNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询会员号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信ID，手机号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -319,7 +745,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -630,24 +1056,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BBE6694-9F7D-4097-940E-B0ABA981E056}">
-  <dimension ref="A1:G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.6640625" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.33203125" customWidth="1"/>
-    <col min="5" max="5" width="72.6640625" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" customWidth="1"/>
-    <col min="7" max="7" width="17.88671875" customWidth="1"/>
+    <col min="1" max="1" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.375" customWidth="1"/>
+    <col min="5" max="5" width="96.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.125" customWidth="1"/>
+    <col min="7" max="7" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -655,13 +1082,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -670,9 +1097,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -684,78 +1111,531 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" t="s">
+        <v>113</v>
+      </c>
+      <c r="E9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" t="s">
+        <v>86</v>
+      </c>
+      <c r="F12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" t="s">
+        <v>103</v>
+      </c>
+      <c r="E15" t="s">
+        <v>98</v>
+      </c>
+      <c r="F15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D16" t="s">
+        <v>102</v>
+      </c>
+      <c r="E16" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>105</v>
+      </c>
+      <c r="B17" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" t="s">
+        <v>109</v>
+      </c>
+      <c r="D18" t="s">
+        <v>114</v>
+      </c>
+      <c r="E18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" t="s">
+        <v>110</v>
+      </c>
+      <c r="D19" t="s">
+        <v>115</v>
+      </c>
+      <c r="E19" t="s">
+        <v>116</v>
+      </c>
+      <c r="F19" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>118</v>
+      </c>
+      <c r="B20" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20" t="s">
+        <v>122</v>
+      </c>
+      <c r="E20" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B21" t="s">
+        <v>120</v>
+      </c>
+      <c r="C21" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>128</v>
+      </c>
+      <c r="B22" t="s">
+        <v>123</v>
+      </c>
+      <c r="C22" t="s">
+        <v>124</v>
+      </c>
+      <c r="E22" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>129</v>
+      </c>
+      <c r="B23" t="s">
+        <v>126</v>
+      </c>
+      <c r="C23" t="s">
+        <v>127</v>
+      </c>
+      <c r="E23" t="s">
+        <v>130</v>
+      </c>
+      <c r="F23" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>132</v>
+      </c>
+      <c r="B24" t="s">
+        <v>133</v>
+      </c>
+      <c r="C24" t="s">
+        <v>134</v>
+      </c>
+      <c r="E24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>132</v>
+      </c>
+      <c r="B25" t="s">
+        <v>135</v>
+      </c>
+      <c r="C25" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>137</v>
+      </c>
+      <c r="B26" t="s">
+        <v>138</v>
+      </c>
+      <c r="C26" t="s">
+        <v>139</v>
+      </c>
+      <c r="E26" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>140</v>
+      </c>
+      <c r="B27" t="s">
+        <v>141</v>
+      </c>
+      <c r="C27" t="s">
+        <v>142</v>
+      </c>
+      <c r="E27" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>140</v>
+      </c>
+      <c r="B28" t="s">
+        <v>144</v>
+      </c>
+      <c r="C28" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>140</v>
+      </c>
+      <c r="B29" t="s">
+        <v>146</v>
+      </c>
+      <c r="C29" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>140</v>
+      </c>
+      <c r="B30" t="s">
+        <v>148</v>
+      </c>
+      <c r="C30" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>150</v>
+      </c>
+      <c r="B31" t="s">
+        <v>151</v>
+      </c>
+      <c r="C31" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>150</v>
+      </c>
+      <c r="B32" t="s">
+        <v>153</v>
+      </c>
+      <c r="C32" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>150</v>
+      </c>
+      <c r="B33" t="s">
+        <v>155</v>
+      </c>
+      <c r="C33" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>150</v>
+      </c>
+      <c r="B34" t="s">
+        <v>157</v>
+      </c>
+      <c r="C34" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>150</v>
+      </c>
+      <c r="B35" t="s">
+        <v>159</v>
+      </c>
+      <c r="C35" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{856BBC51-FCB9-4312-8040-04389C972335}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" customWidth="1"/>
+    <col min="1" max="1" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" customWidth="1"/>
     <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -778,7 +1658,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -801,7 +1681,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
         <v>21</v>
@@ -816,13 +1696,13 @@
         <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
         <v>23</v>
@@ -843,7 +1723,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" t="s">
         <v>24</v>
@@ -864,7 +1744,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
         <v>25</v>
@@ -885,10 +1765,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -900,13 +1780,13 @@
         <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
         <v>27</v>
@@ -927,7 +1807,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" t="s">
         <v>29</v>
@@ -948,7 +1828,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" t="s">
         <v>31</v>
@@ -969,7 +1849,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" t="s">
         <v>40</v>
@@ -984,16 +1864,16 @@
         <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>41</v>
+        <v>161</v>
       </c>
       <c r="G11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
         <v>32</v>
@@ -1005,16 +1885,16 @@
         <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
         <v>26</v>
@@ -1026,16 +1906,16 @@
         <v>17</v>
       </c>
       <c r="F13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
         <v>32</v>
@@ -1047,7 +1927,7 @@
         <v>17</v>
       </c>
       <c r="F14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G14" t="s">
         <v>8</v>
